--- a/Projeto mahogany.xlsx
+++ b/Projeto mahogany.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victor.hsantos41\Desktop\ADS_projeto\ADS_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C756C07-958E-424A-8FA2-5A58B45AB0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93BD7C9-530D-442F-8312-08A227903706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Status</t>
   </si>
@@ -787,7 +786,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +875,9 @@
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -923,7 +924,9 @@
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
@@ -970,7 +973,9 @@
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">

--- a/Projeto mahogany.xlsx
+++ b/Projeto mahogany.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victor.hsantos41\Desktop\ADS_projeto\ADS_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93BD7C9-530D-442F-8312-08A227903706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF0A2B6-D2F6-49DC-98BF-A39E00549ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Status</t>
   </si>
@@ -786,7 +786,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +839,9 @@
       <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -1002,7 +1004,9 @@
       <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">

--- a/Projeto mahogany.xlsx
+++ b/Projeto mahogany.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victor.hsantos41\Desktop\ADS_projeto\ADS_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF0A2B6-D2F6-49DC-98BF-A39E00549ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6CC1E8-44E1-45A3-8634-8DB97B9CF207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Status</t>
   </si>
@@ -786,7 +786,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +917,9 @@
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -1031,7 +1033,9 @@
       <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
